--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinpiggy/Documents/StatisticalMechanics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="30140" windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,20 +125,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,11 +162,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -165,7 +175,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -173,17 +183,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -193,7 +203,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -201,12 +211,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,18 +225,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -252,19 +262,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -287,7 +297,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,11 +696,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>940438</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>486156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540001" y="3086100"/>
+          <a:ext cx="445137" cy="448056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -732,12 +780,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -767,12 +815,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -978,18 +1026,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1015,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1027,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1039,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1051,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1063,7 +1111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1075,7 +1123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1087,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1099,7 +1147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1111,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1123,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1135,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1147,7 +1195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1159,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1171,7 +1219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1183,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1195,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1207,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1233,7 +1281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1246,7 +1294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinpiggy/Documents/StatisticalMechanics/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="30140" windowHeight="17860"/>
+    <workbookView xWindow="600" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>General remarks on Bose/Fermi statistics       Non-interacting Bose gas                      (black body radiation, phonon, etc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEC and superfluidity of He4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Non-interacting Fermi gas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +104,14 @@
   </si>
   <si>
     <t>General remarks on phase transition          Ising model: exact solutions for low dimensions and mean field approximation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General remarks on Bose/Fermi statistics       Non-interacting Bose gas, BEC, superfluidity                      (black body radiation, phonon, etc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Integral/Green function method in statistical mechanics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,20 +120,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -210,17 +205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -246,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,19 +246,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -283,7 +264,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -292,12 +273,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,6 +711,446 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="@FangXieTHU"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="5076825"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="@gucx13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="3552825"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="@lijiac"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2543175" y="4067175"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="@lijiac"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="4562475"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="@jerry-epsilon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2543175" y="6591300"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="@jerry-epsilon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="7105650"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="@yan-gw13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="7600950"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="@yan-gw13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="8115300"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1026,18 +1447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45" style="13" customWidth="1"/>
+    <col min="4" max="4" width="45" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1047,11 +1468,11 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1059,11 +1480,11 @@
         <v>4</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1071,11 +1492,11 @@
         <v>3</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1083,11 +1504,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1095,11 +1516,11 @@
         <v>5</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1107,11 +1528,11 @@
         <v>6</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1119,35 +1540,35 @@
         <v>7</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1155,23 +1576,21 @@
         <v>10</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1179,11 +1598,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1191,80 +1610,80 @@
         <v>11</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14"/>
+      <c r="D14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="13"/>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17"/>
+      <c r="D17" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="C18" s="13"/>
+      <c r="D18" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12" t="s">
-        <v>21</v>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,9 +1713,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>